--- a/DIMSDocuments/table.xlsx
+++ b/DIMSDocuments/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTSEMESTER\capston\DIMS\DIMSDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B67E3-9B16-492A-A716-0A1BA58326F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E58FDA-5112-4B11-8819-DA1FDA7B5909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{F6C701BB-E55F-459E-9858-CDEE213E2441}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{F6C701BB-E55F-459E-9858-CDEE213E2441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="149">
   <si>
     <t>FeedbackID</t>
   </si>
@@ -375,6 +375,111 @@
   </si>
   <si>
     <t>Enddate</t>
+  </si>
+  <si>
+    <t>HotelRequest</t>
+  </si>
+  <si>
+    <t>HotelRequestId</t>
+  </si>
+  <si>
+    <t>PendingStatus</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>HotelStatus</t>
+  </si>
+  <si>
+    <t>HotelRequestStatus</t>
+  </si>
+  <si>
+    <t>MenuId</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>MenuName</t>
+  </si>
+  <si>
+    <t>MenuPrice</t>
+  </si>
+  <si>
+    <t>MenuType</t>
+  </si>
+  <si>
+    <t>MenuRealQuanity</t>
+  </si>
+  <si>
+    <t>MenuStatus</t>
+  </si>
+  <si>
+    <t>BookingDetailMenu</t>
+  </si>
+  <si>
+    <t>BookingDetailMenuID</t>
+  </si>
+  <si>
+    <t>BookingDetailMenuName</t>
+  </si>
+  <si>
+    <t>BookingDetailMenuPrice</t>
+  </si>
+  <si>
+    <t>BookingDetailMenuQuanity</t>
+  </si>
+  <si>
+    <t>BookingDetailMenuStatus</t>
+  </si>
+  <si>
+    <t>SpecialPrices</t>
+  </si>
+  <si>
+    <t>SpecialPriceID</t>
+  </si>
+  <si>
+    <t>SpecialPriceDate</t>
+  </si>
+  <si>
+    <t>SpecialPricePrice</t>
+  </si>
+  <si>
+    <t>SpecialPriceStatus</t>
+  </si>
+  <si>
+    <t>BookingDeatailPrice</t>
+  </si>
+  <si>
+    <t>BookingDeatailPriceID</t>
+  </si>
+  <si>
+    <t>DoorLogs</t>
+  </si>
+  <si>
+    <t>DoorLogID</t>
+  </si>
+  <si>
+    <t>RoomId</t>
+  </si>
+  <si>
+    <t>DoorQrContent</t>
+  </si>
+  <si>
+    <t>DoorCondition</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -611,15 +716,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,15 +1043,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC320A5-EC8F-4216-9FCE-FAB66E6D62D8}">
-  <dimension ref="B6:CL32"/>
+  <dimension ref="B6:CL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -951,6 +1061,8 @@
     <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -992,7 +1104,7 @@
       <c r="G7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="L7" s="24" t="s">
@@ -1007,11 +1119,11 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
-      <c r="V7" s="27" t="s">
+      <c r="V7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
       <c r="Y7" s="29"/>
       <c r="AA7" s="24" t="s">
         <v>54</v>
@@ -2263,6 +2375,12 @@
     </row>
     <row r="26" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="29"/>
       <c r="G27" s="17" t="s">
         <v>19</v>
       </c>
@@ -2270,35 +2388,592 @@
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="S29" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G30" s="5"/>
+      <c r="S30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="30"/>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="2"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6"/>
+      <c r="C34" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="5"/>
+      <c r="T37" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="29"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="U42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="U44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="6"/>
+      <c r="C45" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="6"/>
+      <c r="C61" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6"/>
+      <c r="C70" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="CD7:CG7"/>
-    <mergeCell ref="CI7:CL7"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="BO7:BR7"/>
-    <mergeCell ref="BT7:BW7"/>
-    <mergeCell ref="BY7:CB7"/>
+  <mergeCells count="24">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B56:E56"/>
     <mergeCell ref="AU7:AX7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="G7:J7"/>
@@ -2309,6 +2984,14 @@
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="AK7:AN7"/>
     <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="CD7:CG7"/>
+    <mergeCell ref="CI7:CL7"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="BO7:BR7"/>
+    <mergeCell ref="BT7:BW7"/>
+    <mergeCell ref="BY7:CB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
